--- a/biology/Botanique/Begonia_rex/Begonia_rex.xlsx
+++ b/biology/Botanique/Begonia_rex/Begonia_rex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Begonia rex est une espèce de plantes de la famille des Begoniaceae. Ce bégonia est originaire d'Asie. L'espèce fait partie de la section Platycentrum. Elle a été décrite en 1856 par Jules Antoine Adolph Henri Putzeys (1809-1882). L'épithète spécifique rex signifie « roi, exceptionnel »[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Begonia rex est une espèce de plantes de la famille des Begoniaceae. Ce bégonia est originaire d'Asie. L'espèce fait partie de la section Platycentrum. Elle a été décrite en 1856 par Jules Antoine Adolph Henri Putzeys (1809-1882). L'épithète spécifique rex signifie « roi, exceptionnel ».
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Planche botanique de 1859
@@ -547,12 +561,49 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Distribution : Chine, Inde, cultivé ailleurs[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Distribution : Chine, Inde, cultivé ailleurs.
 Originaire du nord de l'Inde (Himalaya), il a été découvert à Assam vers 1850.
-Horticulture
-La culture de cette espèce demande beaucoup de lumière et une hygrométrie moyenne. Les fleurs doivent être supprimées pour favoriser le feuillage.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Begonia_rex</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Begonia_rex</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Répartition géographique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Horticulture</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La culture de cette espèce demande beaucoup de lumière et une hygrométrie moyenne. Les fleurs doivent être supprimées pour favoriser le feuillage.
 Son croisement avec des espèces asiatiques voisines est à l'origine de très nombreux cultivars au feuillage chatoyant, qui forment le groupe des Begonia ×rex-cultorum.
 	Quelques cultivars
 			'Comtesse Louise Erdody'
@@ -564,33 +615,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Begonia_rex</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Begonia_rex</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À l'ile de La Réunion, l'ONF l'a classé parmi les espèces invasives[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'ile de La Réunion, l'ONF l'a classé parmi les espèces invasives.
 </t>
         </is>
       </c>
